--- a/500all/speech_level/speeches_CHRG-114hhrg97631.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97631.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Good afternoon. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time. I don't foresee any because that was the last vote for the day.    We welcome everyone to today's hearing on the State of Competition in the Pharmacy Benefits Manager and Pharmacy Marketplace. And I now recognize myself for my opening statement.    When a patient visits a doctor who recommends and prescribes medication, the patient rarely receives the prescription drug directly from the doctor. Instead, the patient submits his prescription to a pharmacy which then dispenses that ordered medicine. While this may appear to the patient as a relatively simple exchange, behind the scene exists a complex system. Within this system is a variety of different players who engage in millions of interactions that influence the types of drugs that are available and the prices that patients pay for them.    Two of the key players in this process are pharmacy benefit managers and pharmacies. Today's hearing will examine the state of competition in these two important markets. Pharmacy benefit managers or known as PBMs, play an important role in the healthcare system. PBMs oversee and administer the prescription drug benefits for more than 247 million Americans, or approximately 95 percent of Americans who receive drug benefits.    Through the management of these benefits, PBMs perform a number of varied services. They negotiate the prices of prescription drugs with manufacturers and wholesalers. PBMs design drug formularities that dictate the drugs that will be covered under a benefit plan and the cost-sharing portion the patient will bear for each drug. PBMs also negotiate with pharmacies to determine which pharmacies will participate in their networks, the fees that each pharmacy will receive for dispensing drugs, and the amount the pharmacy will be reimbursed for each drug.    By virtue of their central position in the administration of prescription drug benefits, some would argue that PBMs have the ability to place downward pressure on the prices of drugs. PBMs also can achieve efficiencies that result in savings both to the ultimate patient and the payer of health benefits. Pharmacies also play a critical role in the delivery of medicine to Americans. In addition to purchasing prescription drugs, they typically are the entities that directly engage with the patients. As someone who represents a district with many rural communities, I know firsthand how important pharmacies, particularly independent pharmacies, are to their customers. Many times these independent pharmacies develop meaningful relationships with their customers and provide essential assistance when dispensing the prescription drugs.    Together with doctors, pharmacies are part of an integral team that ensures patients are receiving the proper drugs in the correct amounts and administered in the appropriate fashion. I have been an ardent supporter of independent pharmacies throughout my time in Congress. In both the 112th and the 113th Congress, I introduced legislation that would grant independent pharmacies a specific exemption to the antitrust laws when negotiating contract terms for provisions of healthcare items or services. This would have potentially given the vast network of isolated independent pharmacies a stronger competitive footing relative to larger national pharmacies.    Whether this exemption is needed is another item to consider today. Many PBMs also provide pharmacy services, either through their own brick-and-mortar locations or through mail-order services. As a result, PBMs may negotiate services with competitors to their own pharmacies. Over the years, this has resulted in tensions between certain pharmacies and PBMs. The antitrust enforcement agencies have periodically reviewed PBM activities, finding in some instances that these activities are appropriate and stepping in when they are not.    Today's hearing with allow us to become better educated about the services that PBMs and pharmacies provide. The hearing also will allow us to review whether the proper economic incentives are in place to ensure that customers are receiving affordable prescription drugs and to explore some of the historic tensions between certain PBMs and pharmacies.    The public record generated today will also assist the Committee with its oversight authority of the antitrust enforcement agencies. We have before us Express Scripts and CVS Caremark, two of largest PBMs and pharmacy companies. They will provide an inside and first-hand perspective of PBM and pharmacy operations, as well as an invaluable viewpoint into the prescription and pharmacy industry at large. Additionally, we will hear from a representative of independent pharmacies and one of the experts covering both of these markets. I look forward to today's discussion from this excellent panel of witnesses.    The Chair now recognizes the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, Mr. Johnson of Georgia, for his opening statement.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. Today's hearing is a welcome opportunity to continue this Subcommittee's examination of competition in the healthcare marketplace. The topic of today's hearing, competition in the pharmacy marketplace, will explore the role of pharmacy benefit managers, or PBMs, in ensuring competitive and affordable drug prices for American consumers. In the pharmacy marketplace, PBMs serve as the intermediary between the manufacturers and wholesalers of prescription drugs and the payers of health insurance benefits. In their role as the intermediary in this market, PBMs administer prescription drug benefits to approximately 95 percent of Americans who receive prescription drug benefits. Furthermore, through their contracts with health payers such as health insurance companies, PBMs are responsible for negotiating the cost and availability of prescription drugs with manufacturers and wholesalers.    In short, PBMs are a critical gatekeeper in the prescription drug benefit system. It is, therefore, imperative that we fully understand the functioning of this market from both a competition and regulatory perspective to determine whether consumers are receiving the most affordable prices for prescription drugs. From a competition perspective, some have suggested that there is significant horizontal consolidation in the PBM market.    And, furthermore, that this horizontal consolidation is compounded by the vertical integration of certain PBMs into the mail order and retail pharmacy market. While the Federal Trade Commission has studied this issue on several occasions and reached the conclusion that the PBM market is adequately competitive, as Commissioner Julie Brill has noted, the FTC has not conducted a further study of the PBM industry since 2005, other than to review the ESI Medco merger in 2012, which did not examine issues surrounding PBM, plan designs such as PBM fee and compensation transparency.    It is therefore incumbent upon this Subcommittee to conduct a thorough inquiry on this matter which I hope that today's hearing provides. From a regulatory perspective, it has also been suggested that PBMs pricing techniques, rebate schemes and formulary designs have resulted in higher costs to consumers. I hope that today's hearing also serves as a fruitful discussion of this topic particularly with regard to the Department of Labor's inquiry into this matter last year.    As Consumers Union has noted, effective regulation and effective competition work hand in hand. And the less we can rely on effective competition, the more important it is that regulation ensures effective transparency to reduce the potential for abuse. I strongly agree. While the PBM marketplace is undoubtedly convoluted, today's hearing will serve as an important basis for determining whether consumers are receiving the best prices for prescription drugs or whether we should do more to ensure affordable and transparent markets for prescription drugs.    I thank the Chair for continuing this series. And before closing I ask unanimous consent that the written statement of Lynn Quincy and George Slover of Consumer's Union be made a part of the record.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman. I join you in welcoming the witnesses and look forward to a very frank and analytical discussion of the subject matter.    Once when I was Chairman of the House Judiciary Committee, the Committee reported legislation that would have granted a limited antitrust exemption for independent pharmacies to allow them to collectively bargain as to the terms and conditions of reimbursements from pharmacy benefit managers. This legislation arose from the recognition that small independent pharmacies struggle to compete against large pharmacy chains, particularly with respect to their ability to negotiate reimbursements from pharmacy benefit managers.    Pharmacy benefit managers administer the prescription drug benefit portion of health insurance plans for private companies, unions, and governments. They're responsible for processing and paying prescription drug claims, contracting with pharmacies, and negotiating discounts and rebates with drug manufacturers, all for the ostensible purpose of keeping drug prices low for health plans.    The hearing today gives us an opportunity to delve more deeply into the state of competition in the marketplace for pharmacy benefit managers and to consider its possible effects on consumers. To that end, we should keep the following in mind.    As an initial matter, we should assess whether the market for pharmacy benefit managers is too concentrated and structurally problematic to maximize consumer benefits. Although estimates vary, most studies indicate that just three companies may control up to almost 80 percent of the pharmacy benefit manager market. Such concentration in any industry necessarily raises questions about whether the dominant firms can use their power to the detriment of their competitors and consumers.    The largest pharmacy benefit managers also own retail pharmacy businesses which can be in the form of a large national retail chain, specialty pharmacy business, or online mail-order pharmacies. According to some experts, these ownership arrangements create an inherent conflict of interest because a large pharmacy benefit manager can leverage its market power to benefit its retail pharmacy business by using exclusivity arrangements, providing more generous reimbursements to the detriment of small independent retail pharmacy competitors. Moreover, such concerns may be further exacerbated when the industry is relatively unregulated, as may be the case with pharmacy benefit managers.    In addition, we should consider whether a lack of transparency with respect to operations of pharmacy benefit managers helps or hurts competition. Some critics of pharmacy benefit managers assert that the lack of transparency makes it difficult to assess whether they are fully passing on whatever savings they may have obtain from drug manufacturers. These critics contend that the substantial rise in profits for pharmacy benefit managers in recent years suggest that such savings are not in fact being passed on to consumers.    Critics further assert that it is hard to know whether pharmacy benefit managers are providing fair reimbursements for generic drugs to small independent retail pharmacies given the lack of publicly available information about how pharmacy benefit managers determine such reimbursements. If these allegations are true, the lack of transparency may well make it difficult for health insurance plans to secure the lowest costs or the best quality service for consumers.    Now, while some criticize what they see as lax antitrust enforcement in the pharmacy benefit manager marketplace, there is a broader question of whether more direct regulatory measures are needed beyond stronger antitrust enforcement. And that's what makes what the witnesses have to say here today very important as we on this Committee decide what direction we should pursue.    And I thank the Chairman for the time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Without objection, other Members' opening statements will be made part of the record and I ask unanimous consent to enter in some statements and documents for the record. Representative Carter, Republican from Georgia; Representative Blum, Republican from Iowa; America's Health Insurance Plans; American Pharmacist Association; and Pharmaceutical Care Management Association.*---------------------------------------------------------------------------    *Note: The material submitted by Mr. Marino is not printed in this hearing record but is on file with the Committee. See also ``For the Record Submission--Rep. Marino'' at:      http://docs.house.gov/Committee/Calendar/      ByEvent.aspx?EventID=104193.    Hearing no objection, so ordered.    I will begin by swearing in our witnesses before introducing them. So would you please stand and raise your right hand.    Do you swear that the testimony you are about to give before this Committee is the truth, the whole truth and nothing but the truth, so help you God?    Let the record reflect that all of the witness have responded in the positive.    Please take your seat.    We have four distinguished witnesses today. And starting at my left is Ms. Bricker. She is the Vice President of retail channel management, contracting and strategy at Express Scripts, Incorporated. Prior to joining Express Scripts, Ms. Bricker was the Regional Vice President of account management at Walgreen's Health Services as well as the Director of community retail pharmacy at BJC Healthcare. Ms. Bricker is a graduate of St. Louis College of Pharmacy, and is a registered pharmacist in Missouri. Welcome.    Mr. Balto, who has been with us before on other occasions is an antitrust attorney with over 15 years of government antitrust experience. Mr. Balto worked as a trial attorney in the antitrust division of the Department of Justice and in several senior level positions at the Federal Trade Commission during the Clinton administration. He received his B.A. From the University of Minnesota and his J.D. From the Northeastern University School of Law. Welcome, sir.    Ms. Pons is the Senior Vice President and assistant general counsel at CVS Health. Prior to joining CVS in 2011, Ms. Pons was the chief compliance officer at AdvancedPCS and a senior legal counsel at PCS Health Systems. Ms. Pons earned her bachelor's degree in business administration from the University of Iowa College of Business, and her J.D. From the University of Iowa College of Law. Welcome.    Mr. Arthur is the president of the National Community Pharmacist Association and the owner of two independent pharmacies in Buffalo, New York, which have been serving their community since 1957. Mr. Arthur is active in the pharmacist community and has served on various business and pharmacy boards during his career. Mr. Arthur earned his bachelor's of science degree from the University of Florida College of Pharmacy, and his micro MBA certificate from the State University of New York at Buffalo.    Each of the witnesses' written statements will be entered into the record in its entirety. I ask that each witness summarize his or her testimony in 5 minutes or less. And to help you stay within the time, there is a light in front of you. Now, as I'm intent on making my statements--I'm not looking at any lights and I'm not looking at any clocks. I have people up here that nudge me. What I will politely and diplomatically do when we're getting close, when you hit that 5-minute mark, I will again diplomatically raise the gavel and try to get your attention and ask you by doing that to wrap up your statement if you would do that, please.    Ms. Bricker, would you like to make your statement, please.    Turn on the microphone, please. Thank you.    TESTIMONY OF AMY BRICKER, R.Ph., VICE PRESIDENT, RETAIL </t>
   </si>
   <si>
-    <t>Bricker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bricker. Chairman Marino, Ranking Member Johnson, and other Members of the Subcommittee, my name is Amy Bricker. I'm a licensed pharmacist and serve as vice president retail contracting and strategy for Express Scripts. Thank you for the opportunity to be here today and share our perspective on competition in the pharmacy benefits manager and pharmacy marketplaces.    Express Scripts is the Nation's largest pharmacy benefit manager or PBM. We provide pharmacy services to roughly 86 million Americans covered by our clients which are large employers, health insurers, labor unions, TRICARE, Medicare, Medicaid, and marketplace plans. Express Scripts employs more than 25,000 hard working dedicated employees nationally. We have more than 2,000 employees in Pennsylvania, and more than 700 in the State of Georgia. Our number one goal is to make prescription drugs safe and more affordable for our patients and clients. Everything we do at the company is aimed at that goal. In a changing system, the demand for pharmacy services and prescription drugs has never been stronger. When used properly, prescription drugs keep patients healthy and costs lower for everyone. As the Subcommittee examines PBM and pharmacy competition, we want to emphasize three takeaways.    First, the PBM marketplace is extremely competitive. Dozens of national and regional PBMs offer payers competing services and products. PBMs compete on price, data analytics, customer service, pharmacy access, clinical support services, and many other factors. Payers have a wide choice of PBMs and use that power to demand favorable pricing and contract terms. Express Scripts is an independently operated PBM. Some PBMs are owned by chain drug stores while others are owned by health insurers. We believe our independent business model provides our clients with a clear choice when choosing a PBM. By operating separately from both the supply chain and the distribution channels, we stand alongside our clients as an independent counterweight in the marketplace.    Second, scale matters. Express Scripts scale allows it to negotiate discounts from drug manufacturers and pharmacies that lower costs for our clients and patients. Express Scripts creates competition by forcing drug makers to compete against one another for placement on planned formularies and to gain market share. In a similar way, Express Scripts creates competition among more than 68,000 retail pharmacies nationwide. We contract either individually with retail pharmacies or through group purchasing organizations called PSAOs which represent networks of pharmacies. Like large chain pharmacies, PSAOs combine the bargaining power of thousands of independent pharmacies when negotiating with PBMs. In fact, the largest PSAOs are as sizable as chain pharmacies.    Under Medicare part D, the TRICARE program and some private plans, we must ensure patients have access to a minimum number of pharmacies within a region. In rural areas, independent pharmacies know that Express Scripts needs them in our network to meet Medicare access rules and thus command a premium. In a changing system, our scale helps drive savings. Brand drug makers may have short term pricing power when bringing a breakthrough drug to market. However, our scale helps level the playing field when a brand or generic competitor merges. Scale also allows us to drive a hard bargain and lower costs for patients, clients, and taxpayers.    In 2014, prescription drug spending grew more than recent years. Much of this grown was driven by an increase in the unit cost of prescriptions, the prices manufacturers charge. But across our clients, closely managed plans spent nearly one-third less per member on traditional medications when compared to unmanaged plans. The tools we use help lower costs for clients and patients. Any effort to undermine our tools will mean higher costs for patients and payers.    The third takeaway relates to independent pharmacies. In a changing system, independent pharmacies are more than holding their own. This is great news. The National Community Pharmacist Association recently published its annual digest, and it contains important data. One, the number of independent pharmacies has held steady over the past 4 years, even with the increasing rate of acquisition of independents by retail chains. Two, over the past decade gross profits have held steady at around 23 percent. And, third, over the past decade, annual sales per store have hovered between $3.6 and $4 million per year.    In conclusion, Express Scripts values our relationships with our pharmacy partners, including independent pharmacies. Without independent pharmacies we could not offer clients and patients a high quality pharmacy benefit. The key lesson of the past 5 years is that effecting change requires stakeholders to work together. Rather than pit one part of the pharmacy against another, we can and must work together to lower costs for payers and improve patient outcomes.    Thank you again for the opportunity to be here today. Chairman Marino and Ranking Member Johnson and other Members of the Subcommittee, I am happy to answer any questions that you might have.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Balto.</t>
   </si>
   <si>
-    <t>Balto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Balto. Thank you, Mr. Chairman, Ranking Member, for inviting me to testify today. This is a very important subject. My testimony today is based on my years as a government enforcer and in representing consumers, public interests groups, PBMs, payors, and pharmacies, and PBM matters. And I've testified on several occasions for consumer groups. I have a simple message. By any measure the PBM market is severely broken.    If you look at my testimony on pages 7 and 8 you see that profits are increasing rapidly. Margins are increasing rapidly. By any measure this market is not behaving competitively. Why is that? Normally for a market to function effectively, you need threes things: choice, transparency, and a lack of conflicts of interest. On all three of these measures, the PBM market receives a failing grade. Think about just the issue of--my testimony documents how as drug prices are increasing PBMs are increasing their profits too. They're profiting from increased prices through increased rebates. You don't have to guess about this. If you look at page 7 of the Consumer Union testimony, they document instances where there have been government enforcement actions where PBMs have forced consumers to higher priced, less efficacious drugs in order the maximize their rebates. Now, normally a payor faced with this situation would go and ask for information on rebates. But the PBMs won't provide that. They won't provide that kind of transparency.    Now, in the Department of Labor proceeding that the Ranking Member mentioned, the Department of Labor is considering careful regulation to require transparency. And on one side of the table, you have Fortune 50 corporations, Consumers Union, and the AFL-CIO all saying: We want that greater transparency. And who pops into the room but the FTC. And the FTC says: No. Transparency regulation would be a bad idea. We know what marketplace realties are, but economic theory teaches us that transparency would be bad.    I don't know what counts as regulatory chutzpah to this Committee, but to me that's really regulatory chutzpah. Obviously the Department of Labor and other entities should go and regulate and require the kind of transparency that these PBMs fight tooth and nail to try to avoid.    Why do these problems occur? Because the FTC has effectively made this a regulatory free zone. They have stopped investigating mergers. The last two big PBM mergers they didn't even require a document or conduct a deposition. Including CVS' acquisition of Omnicare which major consumer groups cried out do an investigation, but the FTC says, no.    What does this mean for consumers? First it means these folks can go and merge at will. If these two companies wanted to merge tomorrow, if they wanted to go to the FTC's marriage chuppah, and ask it be merged, we don't know what would keep the FTC from saying no by the standards they are applying today. But there are worse effects. When you wonder about why Walgreens would acquire Rite Aid, it is so that they can battle against the dominance of these PBMs so they can have a fair seat at the table. Now that may or may not be a good merger, but the need for that merger is on the FTC's doorstep.    But, when you create an enforcement free zone, everybody listens. It is not just the PBMs who will engage in increasingly abusive conduct, increasingly abusive conduct. It's everybody else. So a pharmaceutical manufacturer who says what keeps me from increasing prices 6,000 percent? The FTC is asleep at the switch, let me do that.    What does this Committee need to do? First, pass legislation to provide for a fair MAC transparency. The consumers care about whether or not community pharmacists know what they are buying a drug for, because that pharmacist is the consumer's agent. And when they are forced to dispense drugs below cost, everybody suffers except PBMs which are increasing their profit.    Second, go and investigate in restricted networks, restricted part D networks but especially restricted networks for vulnerable consumers who have critical disabilities and specialty drugs. Specialty drug spending is increasing dramatically. That's the major mover to drug spending. And having a market where the PBMs increasingly force consumers into their own specialty pharmacies is sort of like putting the fox in charge of the hen house.    Third, the PBMs have a new--there's a new approach in going and attacking patient assistance programs. Patient assistance programs are programs by pharmaceutical manufacturers to enable patients to afford drugs they might otherwise not be able to afford. Those also should be investigated.    The most important thing I say in my testimony, and I really urge the Committee to spend time looking at this is what I say on page 6, it is really heartfelt and it is based on years of representing consumers. Who represents the consumer when in getting drugs it's the pharmacist who represents the consumer. The pharmacist, as the Chairman has indicated, will go to battle with the PBMs to make sure the consumer receives the right drug at the right price and they need to be protected. I welcome any questions you have.</t>
   </si>
   <si>
@@ -112,27 +97,18 @@
     <t xml:space="preserve">    Mr. Marino. Ms. Pons.</t>
   </si>
   <si>
-    <t>Pons</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Pons. Thank you. Good morning, Chairman Marino, Ranking Member Johnson and Members of the Subcommittee. My name is Natalie Pons and I'm senior vice president and assistant general counsel with CVS Health. We appreciate the opportunity to testify on the critical role that pharmacists and pharmacies play in local community all across America in providing convenient access to affordable high quality prescription drugs within the vibrant marketplace in which we compete.    From our company's earliest days CVS Health has been singularly focused on helping people on their path to better health. Our values are the same as those of our consumers, businesses and communities we serve. We want to make health care more accessible and help improve health outcomes in more affordable effective ways.    Our goal is to work with health plans, employer plans and government plans who contract with us to ensure that their enrollees have access to a well coordinated, safe and affordable prescription drug benefit.    Our patient centered model is organized around how consumers access and use medication. It provides multiple points of care and extends across all of our business units. Our pharmacy benefit management program, our retail mail specialty and long-term care pharmacies, our Medicare part D plan and our MinuteClinics.    In addition to our active medication adherence and care coordination for chronically ill patients, we also provide access to key preventative care such as vaccinations, smoking cessation and weight loss programs.    Our overriding commitment to improving American's health is the main reason we decided to end tobacco sales last year and forego $2 billion in annual revenue. CVS Health is proud of its commitment to and success in constraining prescription drug costs through the discounts in savings we share with our consumers business, labor, health plan and government partners while helping to improve outcomes.    Using our clinical tools we're able to help keep premiums low and save tens of billions of dollars for patients, employers and taxpayers. Our success is driven by on how effectively we help our partners and patients achieve the best return on their health care dollars. We manage prescription drug benefits on behalf of a diverse set of purchasing partners that include health plans, as well as employer and government plans including Medicare part D and State managed Medicaid programs.    Health care purchasers rely on pharmacy benefit managers to negotiate the lowest possible prices from drug manufacturers, put together networks that provide convenient access to pharmacists and pharmacy services and provide a portfolio of clinical programs and services that help ensure positive outcomes and secure overall value for both the patients and clients alike.    To help us achieve this outcome, we encourage the use of cost effective generics over more expensive branded products which helps consumers and plans save money on prescription drugs, without compromising clinical efficacy. To be clear though, our role in the design of these plans is advisory, the plans always have the final say when creating their drug benefit and how it is implemented.    Competition in the PBM industry has aptly described as vigorous by the Federal Trade Commission. In fact there are 30 different large and mid sized PBMs that offer businesses, Labor, consumers and government a variety of choices when considering options for best managing of pharmacy benefit.    In addition, the pharmacy marketplace is a very competitive one, with over 60,000 pharmacies in the United States, consumers in all parts of the country have many outlets to fill their prescriptions. To ensure broad based access our PBM contracts with every category of pharmacy, including drugstore chains, grocery stores and over 20,000 independent pharmacies. We welcome competition indeed our success is predicated on it. Healthy competition drives innovation and allows us to effectively help the consumer business labor health plan and government partners that we serve achieve the best returns on their health care investments.    We look forward to working with the Members of this Committee and others to continue promoting a competitive health care landscape. Thank you for this opportunity to testify and I'll be happy to take your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you. Mr. Arthur.            TESTIMONY OF BRADLEY J. ARTHUR, R.Ph., </t>
   </si>
   <si>
-    <t>Arthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Arthur. Thank you, Chairman Marino, Ranking Member Johnson and Members of the Subcommittee. Thank you for conducting this hearing today and providing me the opportunity to share my views and personal experiences regarding the state of competition in the pharmacy benefit manager and pharmacy marketplace.    My name is Brad Arthur and I'm a pharmacist owner of the two independent pharmacies in the Black Rock community of Buffalo, New York, a very historic, ethnically diverse and predominantly blue color community. My pharmacies have been serving these communities since 1957 when my dad opened his first pharmacy. I'm also the President of the National Community Pharmacists Association which represents the pharmacists owners, managers and employees of nearly 23,000 independent community pharmacies across the United States.    I'm here today as a healthcare provider, a small-business owner and hopefully to present some of my experiences and those of my fellow independent pharmacists in dealing with the PBM industry.    Community pharmacies represent the most accessible point in patient centered health care, where typically consumers do not need an appointment to talk with a pharmacist about prescription medications, over-the-counter products or really any health related concern.    In this way community pharmacies also serve as the safety net health care provider on the front lines. Not only in natural disasters which occur often in Buffalo, tornados, hurricanes, flooding, whatever it may be, everyday when patients need help, their independent pharmacies are there to assist.    According to the Pharmaceutical Care Management Association, PBM has managed pharmacy benefits for over 253 million Americans. Three large companies lead the PBM market. Express Scripts, CVS Health, and OptumRx. In total the cover more than 180 million lives in the United States or roughly 78 percent of Americans whose pharmacy benefits are managed by a PBM. In addition, the annual revenues for these three entities are staggering. In 2014, annual revenues for Express Scripts were approximately $100.9 billion. Annual revenues for CVS Health were 139.4 billion, and for OptumRx $31.97 billion. In 2015, OptumRx acquired Catamaran and other PBM which reported annual revenues to combine into that number of $21.67 billion.    Why should the Federal Government be concerned about this dynamic for large plans? Including the Federal Medicare part D program which was mentioned today, TRICARE the FEHBP. There are only three PBMs to choose from. Because although there are other PBMs, none of them in spite of what we've heard are large enough to administer the prescription drug benefits for these programs. The big three PBMs control almost 80 percent of the entire market and these PBMs have the upper hand, both in negotiating the contract of the payer, as well as strongly influencing the actual plan design itself. The PBM industry typically states that they can use their economic power to harness enhance market efficiencies, but for whom? However, the staggering annual revenue that continue to grow each year of the big three suggest that these efficiencies are going directly to their corporation's bottom lines.    Small community pharmacies like mine are faced on a daily by basis with the impact of the PBM's disproportionate market power. Community pharmacies routinely must agree to take it or leave it contracts from the PBMs just to continue to serve our long-standing patients.    As if that weren't, enough, the PBMs also directly set the reimbursement rates for pharmacies, the very same pharmacies that stand in direct competition of some of these PBM owned mail order and specialty pharmacies. Therefore it comes as no surprise when the PBMs present employer and government payers with carefully tailored suggested plan designs that steer beneficiaries to these PBM owned entities.    As the owner of two pharmacies, I have limited ability to negotiate network participation or reimbursement terms with these entities. However, from a business standpoint, community pharmacies can't just walk away from these contracts. If we did, I would lose a significant amount of the prescription revenue given the large share of these covered lives that these PBMs represent.    Although many independent community pharmacies rely on pharmacy services organizations to contract on their behalf, these PSAOs are no match for the PBMs. In 2013, the GAO conducted a study on the role and the ownership of the PSAOs and stated that over half we spoke with reported having little success in modifying certain contract terms as a result of the negotiations. This may be due to the PBMs use of standard contract terms in the dominant market share of the largest PBMs. Many PBM contracts contain standard terms and conditions that are largely nonnegotiable.    Mr. Chairman, that's the conclusion of my testimony. I welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. The Chair now recognizes the Chairman of the full Judiciary Committee, Mr. Bob Goodlatte of Virginia for his opening statement.</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. In late July, Chairman Marino, Ranking Member Conyers, Ranking Member Johnson, and I announced a series of Committee hearings focused on competition in the health care marketplace. Today's hearing is the third in this series and will examine the competitive dynamics within the pharmacy benefit manager or PBM and pharmacy markets. PBMs oversee the administration and management of prescription drug benefits. In that capacity PBMs interact with nearly every step of the prescription drug supply chain. Consequently, they have the ability to extract lower prices for prescription drugs and have had some success in doing so.    However, notwithstanding pressure from PBMs drug prices continue to rise. A recent Wall Street Journal investigation found that increases in drug prices routinely outpaced inflation and often by a significant amount. These increases were found despite reduced demand drug studied and even in the face of new competing drugs.    If true, this represents a troubling trend as Americans face a progressively aging population and an ever growing amount of taxpayer money used to fund the purchase of prescription drugs. Through today's examination of competition within the PBM and pharmacy markets, we should explore whether the proper economic incentives exist for PBMs and pharmacies to place a genuine check on rising drug prices.    Another challenge facing the country and my constituents is affordable and accessible health care in rural communities. Independent pharmacies play a critical role in the delivery of personal prescription drug care, especially in rural areas.    During my tenure in Congress, I've seen many community pharmacies in my district shudder their doors. While we should allow the free market to operate, we should also ensure that there is a level playing field for both large and small pharmacies. Today's discussion will help shed some light on the nature of the competitive playing field in the pharmacy market.    Since the enactment of the Affordable Care Act, I consistently have expressed concern that the law would compel consolidation across a number of health care industries. My fears appear to be coming true. Both the PBM and the pharmacy markets have experienced consolidation in recent years. Indeed Walgreens and Rite Aid recently announced their intent to merge and CVS's purchase of Target's retail pharmacies is currently under review at the Federal Trade Commission.    This Committee has held hearings on past PBM consolidation, including the merger between Express Scripts and Medco. While this hearing is not intended to review the details of any particular transaction, we should examine how these trends have impacted competition in both the PBM and pharmacy markets. Specifically, it will be helpful to learn what affects these transactions have had on prices paid by Americans for prescription drugs. Most importantly, we should explore whether market courses compel these transactions or the Affordable Care Act and its regulatory progeny are prompting increased consolidation.    We have an excellent panel of witnesses before us today who can provide us with firsthand perspectives on the competitive issues facing the PBMs and pharmacies and I look forward to hearing their testimony.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you Chairman Marino. Of all the issues that we examine here in Congress perhaps none is more personal than that of health care. Americans literally trust our health care professionals with our lives. And pharmacists are an essential part of that health care, particularly in the communities in northern and east Texas that I represent. Because in many of those towns there are big chain drugstores, but most of the towns in the district that I represent depend on local community pharmacies that have been there for decades. And as the health care landscape evolves and becomes frankly increasingly complicated I want to make sure that we protect the pillars of the community in those types of towns in my district.    So Ms. Bricker, let me ask you a question. It is my understanding that your company may not update their reimbursement rate often enough to keep up with fluctuations in the marketplace. That concerns me because if a certain generic drug price drops rapidly and if that drop isn't updated quickly it would seem to me that Medicare could be paying more for a generic drug than it should. Is that a legitimate concern?</t>
   </si>
   <si>
@@ -292,9 +265,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. And thank you to our witnesses. I want to welcome you, and certainly thank you for your testimony and I particularly want to acknowledge the extraordinary corporate citizenship of CVS, a company that I have admired for a long time, particularly when it made its very courageous and impactful decision to forego selling tobacco products at the loss of $2 billion in revenue. But I think you have really set an example for health care companies and I just want to publicly applaud you for that.    I want to go first in response to you, Mr. Balto has said in his testimony, well it was in his written testimony here today that plan sponsors need more transparency in order to make sure they are receiving the full benefits of PBM bargaining power and to make sure that PBMs effectively rein in drug costs. It sounds like a reasonable proposition would you respond to that claim?</t>
   </si>
   <si>
@@ -343,9 +313,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    You know, sometimes I think when I fly in here--I fly--and I've made this statement to my district before that we fly into a wonderland of where reality doesn't matter anymore. Case in point, many of the things that I've heard this afternoon give me cause to believe, yes, we're there again. And this is an issue with community and independent pharmacists that, you know, play a critical role in my district, in rural northeast Georgia.    Mr. Chairman, with the unanimous consent to enter into the record a report from the association representing senior care pharmacies on MAC pricing data, a letter from BlueCross BlueShield on compounding pharmacies, and several statements and examples of PBM interactions from community pharmacies.</t>
   </si>
   <si>
@@ -446,9 +413,6 @@
   </si>
   <si>
     <t>400196</t>
-  </si>
-  <si>
-    <t>Darrell E. Issa</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Okay. Well, I'm going to start off, Mr. Balto, in your statement, it's already been read a couple times, but I'll grab a couple of the key words you used. This is the PBMs are the least regulated sector of healthcare. I guess without the FDA they might be. Essential elements of competition are not there. The following are transparency, choice, and lack of conflict of interest. Right?</t>
@@ -1093,11 +1057,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1117,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1145,11 +1105,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1169,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1197,11 +1153,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1221,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1249,11 +1201,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1273,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1301,11 +1249,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1327,11 +1273,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1351,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1379,11 +1321,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1405,11 +1345,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1429,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1457,11 +1393,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1481,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1509,11 +1441,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1535,11 +1465,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1559,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1587,11 +1513,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1611,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1637,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1663,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1689,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1715,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1741,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1767,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1793,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1819,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1845,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1871,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1897,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1923,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1949,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1975,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2003,11 +1897,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2027,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2053,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2079,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2105,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2131,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2157,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2183,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2209,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2235,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2261,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2287,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2313,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2339,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2365,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2391,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2419,11 +2281,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2443,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2469,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2495,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2521,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2547,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2573,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2599,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2625,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2651,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>74</v>
-      </c>
-      <c r="H62" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2677,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2703,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2729,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2755,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2781,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2807,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2835,11 +2665,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2859,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2885,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2911,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2937,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2963,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2989,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3015,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3041,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3067,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3093,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>92</v>
-      </c>
-      <c r="H79" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3121,11 +2929,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3145,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3171,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3197,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3223,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3251,11 +3049,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3275,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
-      </c>
-      <c r="G86" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3303,11 +3097,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3327,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
-      </c>
-      <c r="G88" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3355,11 +3145,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3379,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G90" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3405,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3431,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
-      </c>
-      <c r="G92" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3457,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3483,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
-      </c>
-      <c r="G94" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3509,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3535,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
         <v>108</v>
-      </c>
-      <c r="G96" t="s">
-        <v>109</v>
-      </c>
-      <c r="H96" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3561,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3587,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3613,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3639,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
-      </c>
-      <c r="G100" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3665,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3691,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
-      </c>
-      <c r="G102" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3717,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3743,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>108</v>
-      </c>
-      <c r="G104" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3769,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3795,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>108</v>
-      </c>
-      <c r="G106" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3821,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3847,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>108</v>
-      </c>
-      <c r="G108" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3873,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3899,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>108</v>
-      </c>
-      <c r="G110" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3925,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3951,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>108</v>
-      </c>
-      <c r="G112" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3977,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4003,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>108</v>
-      </c>
-      <c r="G114" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4029,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4055,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>108</v>
-      </c>
-      <c r="G116" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4081,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4107,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>108</v>
-      </c>
-      <c r="G118" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4135,11 +3865,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4159,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>143</v>
-      </c>
-      <c r="G120" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4185,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4211,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>143</v>
-      </c>
-      <c r="G122" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4237,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4263,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
-      </c>
-      <c r="G124" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4289,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4315,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>143</v>
-      </c>
-      <c r="G126" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4341,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4367,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>143</v>
-      </c>
-      <c r="G128" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4393,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4419,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
         <v>143</v>
-      </c>
-      <c r="G130" t="s">
-        <v>144</v>
-      </c>
-      <c r="H130" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4445,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4471,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>143</v>
-      </c>
-      <c r="G132" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4497,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4523,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>143</v>
-      </c>
-      <c r="G134" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4549,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4575,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>143</v>
-      </c>
-      <c r="G136" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4601,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4627,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>143</v>
-      </c>
-      <c r="G138" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4653,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4679,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>143</v>
-      </c>
-      <c r="G140" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4705,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4731,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>143</v>
-      </c>
-      <c r="G142" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4757,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4783,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>143</v>
-      </c>
-      <c r="G144" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4809,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4835,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>143</v>
-      </c>
-      <c r="G146" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4861,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4887,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>143</v>
-      </c>
-      <c r="G148" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4913,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4939,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>143</v>
-      </c>
-      <c r="G150" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4967,11 +4633,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4991,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>143</v>
-      </c>
-      <c r="G152" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5017,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5043,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>143</v>
-      </c>
-      <c r="G154" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5069,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5095,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>143</v>
-      </c>
-      <c r="G156" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5123,11 +4777,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5147,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5175,11 +4825,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5199,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5227,11 +4873,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5251,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5279,11 +4921,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5303,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5331,11 +4969,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5355,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5383,11 +5017,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5407,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5435,11 +5065,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5459,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5487,11 +5113,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5511,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5539,11 +5161,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5563,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5591,11 +5209,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5615,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5643,11 +5257,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5667,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5695,11 +5305,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5719,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5747,11 +5353,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5771,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5799,11 +5401,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5823,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5851,11 +5449,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5875,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5903,11 +5497,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5927,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5955,11 +5545,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5979,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6007,11 +5593,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6031,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6059,11 +5641,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6083,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6111,11 +5689,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6135,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6163,11 +5737,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6187,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6215,11 +5785,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6239,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6267,11 +5833,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6291,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6319,11 +5881,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6345,11 +5905,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97631.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97631.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. Good afternoon. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time. I don't foresee any because that was the last vote for the day.    We welcome everyone to today's hearing on the State of Competition in the Pharmacy Benefits Manager and Pharmacy Marketplace. And I now recognize myself for my opening statement.    When a patient visits a doctor who recommends and prescribes medication, the patient rarely receives the prescription drug directly from the doctor. Instead, the patient submits his prescription to a pharmacy which then dispenses that ordered medicine. While this may appear to the patient as a relatively simple exchange, behind the scene exists a complex system. Within this system is a variety of different players who engage in millions of interactions that influence the types of drugs that are available and the prices that patients pay for them.    Two of the key players in this process are pharmacy benefit managers and pharmacies. Today's hearing will examine the state of competition in these two important markets. Pharmacy benefit managers or known as PBMs, play an important role in the healthcare system. PBMs oversee and administer the prescription drug benefits for more than 247 million Americans, or approximately 95 percent of Americans who receive drug benefits.    Through the management of these benefits, PBMs perform a number of varied services. They negotiate the prices of prescription drugs with manufacturers and wholesalers. PBMs design drug formularities that dictate the drugs that will be covered under a benefit plan and the cost-sharing portion the patient will bear for each drug. PBMs also negotiate with pharmacies to determine which pharmacies will participate in their networks, the fees that each pharmacy will receive for dispensing drugs, and the amount the pharmacy will be reimbursed for each drug.    By virtue of their central position in the administration of prescription drug benefits, some would argue that PBMs have the ability to place downward pressure on the prices of drugs. PBMs also can achieve efficiencies that result in savings both to the ultimate patient and the payer of health benefits. Pharmacies also play a critical role in the delivery of medicine to Americans. In addition to purchasing prescription drugs, they typically are the entities that directly engage with the patients. As someone who represents a district with many rural communities, I know firsthand how important pharmacies, particularly independent pharmacies, are to their customers. Many times these independent pharmacies develop meaningful relationships with their customers and provide essential assistance when dispensing the prescription drugs.    Together with doctors, pharmacies are part of an integral team that ensures patients are receiving the proper drugs in the correct amounts and administered in the appropriate fashion. I have been an ardent supporter of independent pharmacies throughout my time in Congress. In both the 112th and the 113th Congress, I introduced legislation that would grant independent pharmacies a specific exemption to the antitrust laws when negotiating contract terms for provisions of healthcare items or services. This would have potentially given the vast network of isolated independent pharmacies a stronger competitive footing relative to larger national pharmacies.    Whether this exemption is needed is another item to consider today. Many PBMs also provide pharmacy services, either through their own brick-and-mortar locations or through mail-order services. As a result, PBMs may negotiate services with competitors to their own pharmacies. Over the years, this has resulted in tensions between certain pharmacies and PBMs. The antitrust enforcement agencies have periodically reviewed PBM activities, finding in some instances that these activities are appropriate and stepping in when they are not.    Today's hearing with allow us to become better educated about the services that PBMs and pharmacies provide. The hearing also will allow us to review whether the proper economic incentives are in place to ensure that customers are receiving affordable prescription drugs and to explore some of the historic tensions between certain PBMs and pharmacies.    The public record generated today will also assist the Committee with its oversight authority of the antitrust enforcement agencies. We have before us Express Scripts and CVS Caremark, two of largest PBMs and pharmacy companies. They will provide an inside and first-hand perspective of PBM and pharmacy operations, as well as an invaluable viewpoint into the prescription and pharmacy industry at large. Additionally, we will hear from a representative of independent pharmacies and one of the experts covering both of these markets. I look forward to today's discussion from this excellent panel of witnesses.    The Chair now recognizes the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, Mr. Johnson of Georgia, for his opening statement.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. Today's hearing is a welcome opportunity to continue this Subcommittee's examination of competition in the healthcare marketplace. The topic of today's hearing, competition in the pharmacy marketplace, will explore the role of pharmacy benefit managers, or PBMs, in ensuring competitive and affordable drug prices for American consumers. In the pharmacy marketplace, PBMs serve as the intermediary between the manufacturers and wholesalers of prescription drugs and the payers of health insurance benefits. In their role as the intermediary in this market, PBMs administer prescription drug benefits to approximately 95 percent of Americans who receive prescription drug benefits. Furthermore, through their contracts with health payers such as health insurance companies, PBMs are responsible for negotiating the cost and availability of prescription drugs with manufacturers and wholesalers.    In short, PBMs are a critical gatekeeper in the prescription drug benefit system. It is, therefore, imperative that we fully understand the functioning of this market from both a competition and regulatory perspective to determine whether consumers are receiving the most affordable prices for prescription drugs. From a competition perspective, some have suggested that there is significant horizontal consolidation in the PBM market.    And, furthermore, that this horizontal consolidation is compounded by the vertical integration of certain PBMs into the mail order and retail pharmacy market. While the Federal Trade Commission has studied this issue on several occasions and reached the conclusion that the PBM market is adequately competitive, as Commissioner Julie Brill has noted, the FTC has not conducted a further study of the PBM industry since 2005, other than to review the ESI Medco merger in 2012, which did not examine issues surrounding PBM, plan designs such as PBM fee and compensation transparency.    It is therefore incumbent upon this Subcommittee to conduct a thorough inquiry on this matter which I hope that today's hearing provides. From a regulatory perspective, it has also been suggested that PBMs pricing techniques, rebate schemes and formulary designs have resulted in higher costs to consumers. I hope that today's hearing also serves as a fruitful discussion of this topic particularly with regard to the Department of Labor's inquiry into this matter last year.    As Consumers Union has noted, effective regulation and effective competition work hand in hand. And the less we can rely on effective competition, the more important it is that regulation ensures effective transparency to reduce the potential for abuse. I strongly agree. While the PBM marketplace is undoubtedly convoluted, today's hearing will serve as an important basis for determining whether consumers are receiving the best prices for prescription drugs or whether we should do more to ensure affordable and transparent markets for prescription drugs.    I thank the Chair for continuing this series. And before closing I ask unanimous consent that the written statement of Lynn Quincy and George Slover of Consumer's Union be made a part of the record.</t>
   </si>
   <si>
@@ -73,12 +88,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman. I join you in welcoming the witnesses and look forward to a very frank and analytical discussion of the subject matter.    Once when I was Chairman of the House Judiciary Committee, the Committee reported legislation that would have granted a limited antitrust exemption for independent pharmacies to allow them to collectively bargain as to the terms and conditions of reimbursements from pharmacy benefit managers. This legislation arose from the recognition that small independent pharmacies struggle to compete against large pharmacy chains, particularly with respect to their ability to negotiate reimbursements from pharmacy benefit managers.    Pharmacy benefit managers administer the prescription drug benefit portion of health insurance plans for private companies, unions, and governments. They're responsible for processing and paying prescription drug claims, contracting with pharmacies, and negotiating discounts and rebates with drug manufacturers, all for the ostensible purpose of keeping drug prices low for health plans.    The hearing today gives us an opportunity to delve more deeply into the state of competition in the marketplace for pharmacy benefit managers and to consider its possible effects on consumers. To that end, we should keep the following in mind.    As an initial matter, we should assess whether the market for pharmacy benefit managers is too concentrated and structurally problematic to maximize consumer benefits. Although estimates vary, most studies indicate that just three companies may control up to almost 80 percent of the pharmacy benefit manager market. Such concentration in any industry necessarily raises questions about whether the dominant firms can use their power to the detriment of their competitors and consumers.    The largest pharmacy benefit managers also own retail pharmacy businesses which can be in the form of a large national retail chain, specialty pharmacy business, or online mail-order pharmacies. According to some experts, these ownership arrangements create an inherent conflict of interest because a large pharmacy benefit manager can leverage its market power to benefit its retail pharmacy business by using exclusivity arrangements, providing more generous reimbursements to the detriment of small independent retail pharmacy competitors. Moreover, such concerns may be further exacerbated when the industry is relatively unregulated, as may be the case with pharmacy benefit managers.    In addition, we should consider whether a lack of transparency with respect to operations of pharmacy benefit managers helps or hurts competition. Some critics of pharmacy benefit managers assert that the lack of transparency makes it difficult to assess whether they are fully passing on whatever savings they may have obtain from drug manufacturers. These critics contend that the substantial rise in profits for pharmacy benefit managers in recent years suggest that such savings are not in fact being passed on to consumers.    Critics further assert that it is hard to know whether pharmacy benefit managers are providing fair reimbursements for generic drugs to small independent retail pharmacies given the lack of publicly available information about how pharmacy benefit managers determine such reimbursements. If these allegations are true, the lack of transparency may well make it difficult for health insurance plans to secure the lowest costs or the best quality service for consumers.    Now, while some criticize what they see as lax antitrust enforcement in the pharmacy benefit manager marketplace, there is a broader question of whether more direct regulatory measures are needed beyond stronger antitrust enforcement. And that's what makes what the witnesses have to say here today very important as we on this Committee decide what direction we should pursue.    And I thank the Chairman for the time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Without objection, other Members' opening statements will be made part of the record and I ask unanimous consent to enter in some statements and documents for the record. Representative Carter, Republican from Georgia; Representative Blum, Republican from Iowa; America's Health Insurance Plans; American Pharmacist Association; and Pharmaceutical Care Management Association.*---------------------------------------------------------------------------    *Note: The material submitted by Mr. Marino is not printed in this hearing record but is on file with the Committee. See also ``For the Record Submission--Rep. Marino'' at:      http://docs.house.gov/Committee/Calendar/      ByEvent.aspx?EventID=104193.    Hearing no objection, so ordered.    I will begin by swearing in our witnesses before introducing them. So would you please stand and raise your right hand.    Do you swear that the testimony you are about to give before this Committee is the truth, the whole truth and nothing but the truth, so help you God?    Let the record reflect that all of the witness have responded in the positive.    Please take your seat.    We have four distinguished witnesses today. And starting at my left is Ms. Bricker. She is the Vice President of retail channel management, contracting and strategy at Express Scripts, Incorporated. Prior to joining Express Scripts, Ms. Bricker was the Regional Vice President of account management at Walgreen's Health Services as well as the Director of community retail pharmacy at BJC Healthcare. Ms. Bricker is a graduate of St. Louis College of Pharmacy, and is a registered pharmacist in Missouri. Welcome.    Mr. Balto, who has been with us before on other occasions is an antitrust attorney with over 15 years of government antitrust experience. Mr. Balto worked as a trial attorney in the antitrust division of the Department of Justice and in several senior level positions at the Federal Trade Commission during the Clinton administration. He received his B.A. From the University of Minnesota and his J.D. From the Northeastern University School of Law. Welcome, sir.    Ms. Pons is the Senior Vice President and assistant general counsel at CVS Health. Prior to joining CVS in 2011, Ms. Pons was the chief compliance officer at AdvancedPCS and a senior legal counsel at PCS Health Systems. Ms. Pons earned her bachelor's degree in business administration from the University of Iowa College of Business, and her J.D. From the University of Iowa College of Law. Welcome.    Mr. Arthur is the president of the National Community Pharmacist Association and the owner of two independent pharmacies in Buffalo, New York, which have been serving their community since 1957. Mr. Arthur is active in the pharmacist community and has served on various business and pharmacy boards during his career. Mr. Arthur earned his bachelor's of science degree from the University of Florida College of Pharmacy, and his micro MBA certificate from the State University of New York at Buffalo.    Each of the witnesses' written statements will be entered into the record in its entirety. I ask that each witness summarize his or her testimony in 5 minutes or less. And to help you stay within the time, there is a light in front of you. Now, as I'm intent on making my statements--I'm not looking at any lights and I'm not looking at any clocks. I have people up here that nudge me. What I will politely and diplomatically do when we're getting close, when you hit that 5-minute mark, I will again diplomatically raise the gavel and try to get your attention and ask you by doing that to wrap up your statement if you would do that, please.    Ms. Bricker, would you like to make your statement, please.    Turn on the microphone, please. Thank you.    TESTIMONY OF AMY BRICKER, R.Ph., VICE PRESIDENT, RETAIL </t>
   </si>
   <si>
+    <t>Bricker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bricker. Chairman Marino, Ranking Member Johnson, and other Members of the Subcommittee, my name is Amy Bricker. I'm a licensed pharmacist and serve as vice president retail contracting and strategy for Express Scripts. Thank you for the opportunity to be here today and share our perspective on competition in the pharmacy benefits manager and pharmacy marketplaces.    Express Scripts is the Nation's largest pharmacy benefit manager or PBM. We provide pharmacy services to roughly 86 million Americans covered by our clients which are large employers, health insurers, labor unions, TRICARE, Medicare, Medicaid, and marketplace plans. Express Scripts employs more than 25,000 hard working dedicated employees nationally. We have more than 2,000 employees in Pennsylvania, and more than 700 in the State of Georgia. Our number one goal is to make prescription drugs safe and more affordable for our patients and clients. Everything we do at the company is aimed at that goal. In a changing system, the demand for pharmacy services and prescription drugs has never been stronger. When used properly, prescription drugs keep patients healthy and costs lower for everyone. As the Subcommittee examines PBM and pharmacy competition, we want to emphasize three takeaways.    First, the PBM marketplace is extremely competitive. Dozens of national and regional PBMs offer payers competing services and products. PBMs compete on price, data analytics, customer service, pharmacy access, clinical support services, and many other factors. Payers have a wide choice of PBMs and use that power to demand favorable pricing and contract terms. Express Scripts is an independently operated PBM. Some PBMs are owned by chain drug stores while others are owned by health insurers. We believe our independent business model provides our clients with a clear choice when choosing a PBM. By operating separately from both the supply chain and the distribution channels, we stand alongside our clients as an independent counterweight in the marketplace.    Second, scale matters. Express Scripts scale allows it to negotiate discounts from drug manufacturers and pharmacies that lower costs for our clients and patients. Express Scripts creates competition by forcing drug makers to compete against one another for placement on planned formularies and to gain market share. In a similar way, Express Scripts creates competition among more than 68,000 retail pharmacies nationwide. We contract either individually with retail pharmacies or through group purchasing organizations called PSAOs which represent networks of pharmacies. Like large chain pharmacies, PSAOs combine the bargaining power of thousands of independent pharmacies when negotiating with PBMs. In fact, the largest PSAOs are as sizable as chain pharmacies.    Under Medicare part D, the TRICARE program and some private plans, we must ensure patients have access to a minimum number of pharmacies within a region. In rural areas, independent pharmacies know that Express Scripts needs them in our network to meet Medicare access rules and thus command a premium. In a changing system, our scale helps drive savings. Brand drug makers may have short term pricing power when bringing a breakthrough drug to market. However, our scale helps level the playing field when a brand or generic competitor merges. Scale also allows us to drive a hard bargain and lower costs for patients, clients, and taxpayers.    In 2014, prescription drug spending grew more than recent years. Much of this grown was driven by an increase in the unit cost of prescriptions, the prices manufacturers charge. But across our clients, closely managed plans spent nearly one-third less per member on traditional medications when compared to unmanaged plans. The tools we use help lower costs for clients and patients. Any effort to undermine our tools will mean higher costs for patients and payers.    The third takeaway relates to independent pharmacies. In a changing system, independent pharmacies are more than holding their own. This is great news. The National Community Pharmacist Association recently published its annual digest, and it contains important data. One, the number of independent pharmacies has held steady over the past 4 years, even with the increasing rate of acquisition of independents by retail chains. Two, over the past decade gross profits have held steady at around 23 percent. And, third, over the past decade, annual sales per store have hovered between $3.6 and $4 million per year.    In conclusion, Express Scripts values our relationships with our pharmacy partners, including independent pharmacies. Without independent pharmacies we could not offer clients and patients a high quality pharmacy benefit. The key lesson of the past 5 years is that effecting change requires stakeholders to work together. Rather than pit one part of the pharmacy against another, we can and must work together to lower costs for payers and improve patient outcomes.    Thank you again for the opportunity to be here today. Chairman Marino and Ranking Member Johnson and other Members of the Subcommittee, I am happy to answer any questions that you might have.</t>
   </si>
   <si>
@@ -88,6 +109,9 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Balto.</t>
   </si>
   <si>
+    <t>Balto</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Balto. Thank you, Mr. Chairman, Ranking Member, for inviting me to testify today. This is a very important subject. My testimony today is based on my years as a government enforcer and in representing consumers, public interests groups, PBMs, payors, and pharmacies, and PBM matters. And I've testified on several occasions for consumer groups. I have a simple message. By any measure the PBM market is severely broken.    If you look at my testimony on pages 7 and 8 you see that profits are increasing rapidly. Margins are increasing rapidly. By any measure this market is not behaving competitively. Why is that? Normally for a market to function effectively, you need threes things: choice, transparency, and a lack of conflicts of interest. On all three of these measures, the PBM market receives a failing grade. Think about just the issue of--my testimony documents how as drug prices are increasing PBMs are increasing their profits too. They're profiting from increased prices through increased rebates. You don't have to guess about this. If you look at page 7 of the Consumer Union testimony, they document instances where there have been government enforcement actions where PBMs have forced consumers to higher priced, less efficacious drugs in order the maximize their rebates. Now, normally a payor faced with this situation would go and ask for information on rebates. But the PBMs won't provide that. They won't provide that kind of transparency.    Now, in the Department of Labor proceeding that the Ranking Member mentioned, the Department of Labor is considering careful regulation to require transparency. And on one side of the table, you have Fortune 50 corporations, Consumers Union, and the AFL-CIO all saying: We want that greater transparency. And who pops into the room but the FTC. And the FTC says: No. Transparency regulation would be a bad idea. We know what marketplace realties are, but economic theory teaches us that transparency would be bad.    I don't know what counts as regulatory chutzpah to this Committee, but to me that's really regulatory chutzpah. Obviously the Department of Labor and other entities should go and regulate and require the kind of transparency that these PBMs fight tooth and nail to try to avoid.    Why do these problems occur? Because the FTC has effectively made this a regulatory free zone. They have stopped investigating mergers. The last two big PBM mergers they didn't even require a document or conduct a deposition. Including CVS' acquisition of Omnicare which major consumer groups cried out do an investigation, but the FTC says, no.    What does this mean for consumers? First it means these folks can go and merge at will. If these two companies wanted to merge tomorrow, if they wanted to go to the FTC's marriage chuppah, and ask it be merged, we don't know what would keep the FTC from saying no by the standards they are applying today. But there are worse effects. When you wonder about why Walgreens would acquire Rite Aid, it is so that they can battle against the dominance of these PBMs so they can have a fair seat at the table. Now that may or may not be a good merger, but the need for that merger is on the FTC's doorstep.    But, when you create an enforcement free zone, everybody listens. It is not just the PBMs who will engage in increasingly abusive conduct, increasingly abusive conduct. It's everybody else. So a pharmaceutical manufacturer who says what keeps me from increasing prices 6,000 percent? The FTC is asleep at the switch, let me do that.    What does this Committee need to do? First, pass legislation to provide for a fair MAC transparency. The consumers care about whether or not community pharmacists know what they are buying a drug for, because that pharmacist is the consumer's agent. And when they are forced to dispense drugs below cost, everybody suffers except PBMs which are increasing their profit.    Second, go and investigate in restricted networks, restricted part D networks but especially restricted networks for vulnerable consumers who have critical disabilities and specialty drugs. Specialty drug spending is increasing dramatically. That's the major mover to drug spending. And having a market where the PBMs increasingly force consumers into their own specialty pharmacies is sort of like putting the fox in charge of the hen house.    Third, the PBMs have a new--there's a new approach in going and attacking patient assistance programs. Patient assistance programs are programs by pharmaceutical manufacturers to enable patients to afford drugs they might otherwise not be able to afford. Those also should be investigated.    The most important thing I say in my testimony, and I really urge the Committee to spend time looking at this is what I say on page 6, it is really heartfelt and it is based on years of representing consumers. Who represents the consumer when in getting drugs it's the pharmacist who represents the consumer. The pharmacist, as the Chairman has indicated, will go to battle with the PBMs to make sure the consumer receives the right drug at the right price and they need to be protected. I welcome any questions you have.</t>
   </si>
   <si>
@@ -97,18 +121,27 @@
     <t xml:space="preserve">    Mr. Marino. Ms. Pons.</t>
   </si>
   <si>
+    <t>Pons</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Pons. Thank you. Good morning, Chairman Marino, Ranking Member Johnson and Members of the Subcommittee. My name is Natalie Pons and I'm senior vice president and assistant general counsel with CVS Health. We appreciate the opportunity to testify on the critical role that pharmacists and pharmacies play in local community all across America in providing convenient access to affordable high quality prescription drugs within the vibrant marketplace in which we compete.    From our company's earliest days CVS Health has been singularly focused on helping people on their path to better health. Our values are the same as those of our consumers, businesses and communities we serve. We want to make health care more accessible and help improve health outcomes in more affordable effective ways.    Our goal is to work with health plans, employer plans and government plans who contract with us to ensure that their enrollees have access to a well coordinated, safe and affordable prescription drug benefit.    Our patient centered model is organized around how consumers access and use medication. It provides multiple points of care and extends across all of our business units. Our pharmacy benefit management program, our retail mail specialty and long-term care pharmacies, our Medicare part D plan and our MinuteClinics.    In addition to our active medication adherence and care coordination for chronically ill patients, we also provide access to key preventative care such as vaccinations, smoking cessation and weight loss programs.    Our overriding commitment to improving American's health is the main reason we decided to end tobacco sales last year and forego $2 billion in annual revenue. CVS Health is proud of its commitment to and success in constraining prescription drug costs through the discounts in savings we share with our consumers business, labor, health plan and government partners while helping to improve outcomes.    Using our clinical tools we're able to help keep premiums low and save tens of billions of dollars for patients, employers and taxpayers. Our success is driven by on how effectively we help our partners and patients achieve the best return on their health care dollars. We manage prescription drug benefits on behalf of a diverse set of purchasing partners that include health plans, as well as employer and government plans including Medicare part D and State managed Medicaid programs.    Health care purchasers rely on pharmacy benefit managers to negotiate the lowest possible prices from drug manufacturers, put together networks that provide convenient access to pharmacists and pharmacy services and provide a portfolio of clinical programs and services that help ensure positive outcomes and secure overall value for both the patients and clients alike.    To help us achieve this outcome, we encourage the use of cost effective generics over more expensive branded products which helps consumers and plans save money on prescription drugs, without compromising clinical efficacy. To be clear though, our role in the design of these plans is advisory, the plans always have the final say when creating their drug benefit and how it is implemented.    Competition in the PBM industry has aptly described as vigorous by the Federal Trade Commission. In fact there are 30 different large and mid sized PBMs that offer businesses, Labor, consumers and government a variety of choices when considering options for best managing of pharmacy benefit.    In addition, the pharmacy marketplace is a very competitive one, with over 60,000 pharmacies in the United States, consumers in all parts of the country have many outlets to fill their prescriptions. To ensure broad based access our PBM contracts with every category of pharmacy, including drugstore chains, grocery stores and over 20,000 independent pharmacies. We welcome competition indeed our success is predicated on it. Healthy competition drives innovation and allows us to effectively help the consumer business labor health plan and government partners that we serve achieve the best returns on their health care investments.    We look forward to working with the Members of this Committee and others to continue promoting a competitive health care landscape. Thank you for this opportunity to testify and I'll be happy to take your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you. Mr. Arthur.            TESTIMONY OF BRADLEY J. ARTHUR, R.Ph., </t>
   </si>
   <si>
+    <t>Arthur</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Arthur. Thank you, Chairman Marino, Ranking Member Johnson and Members of the Subcommittee. Thank you for conducting this hearing today and providing me the opportunity to share my views and personal experiences regarding the state of competition in the pharmacy benefit manager and pharmacy marketplace.    My name is Brad Arthur and I'm a pharmacist owner of the two independent pharmacies in the Black Rock community of Buffalo, New York, a very historic, ethnically diverse and predominantly blue color community. My pharmacies have been serving these communities since 1957 when my dad opened his first pharmacy. I'm also the President of the National Community Pharmacists Association which represents the pharmacists owners, managers and employees of nearly 23,000 independent community pharmacies across the United States.    I'm here today as a healthcare provider, a small-business owner and hopefully to present some of my experiences and those of my fellow independent pharmacists in dealing with the PBM industry.    Community pharmacies represent the most accessible point in patient centered health care, where typically consumers do not need an appointment to talk with a pharmacist about prescription medications, over-the-counter products or really any health related concern.    In this way community pharmacies also serve as the safety net health care provider on the front lines. Not only in natural disasters which occur often in Buffalo, tornados, hurricanes, flooding, whatever it may be, everyday when patients need help, their independent pharmacies are there to assist.    According to the Pharmaceutical Care Management Association, PBM has managed pharmacy benefits for over 253 million Americans. Three large companies lead the PBM market. Express Scripts, CVS Health, and OptumRx. In total the cover more than 180 million lives in the United States or roughly 78 percent of Americans whose pharmacy benefits are managed by a PBM. In addition, the annual revenues for these three entities are staggering. In 2014, annual revenues for Express Scripts were approximately $100.9 billion. Annual revenues for CVS Health were 139.4 billion, and for OptumRx $31.97 billion. In 2015, OptumRx acquired Catamaran and other PBM which reported annual revenues to combine into that number of $21.67 billion.    Why should the Federal Government be concerned about this dynamic for large plans? Including the Federal Medicare part D program which was mentioned today, TRICARE the FEHBP. There are only three PBMs to choose from. Because although there are other PBMs, none of them in spite of what we've heard are large enough to administer the prescription drug benefits for these programs. The big three PBMs control almost 80 percent of the entire market and these PBMs have the upper hand, both in negotiating the contract of the payer, as well as strongly influencing the actual plan design itself. The PBM industry typically states that they can use their economic power to harness enhance market efficiencies, but for whom? However, the staggering annual revenue that continue to grow each year of the big three suggest that these efficiencies are going directly to their corporation's bottom lines.    Small community pharmacies like mine are faced on a daily by basis with the impact of the PBM's disproportionate market power. Community pharmacies routinely must agree to take it or leave it contracts from the PBMs just to continue to serve our long-standing patients.    As if that weren't, enough, the PBMs also directly set the reimbursement rates for pharmacies, the very same pharmacies that stand in direct competition of some of these PBM owned mail order and specialty pharmacies. Therefore it comes as no surprise when the PBMs present employer and government payers with carefully tailored suggested plan designs that steer beneficiaries to these PBM owned entities.    As the owner of two pharmacies, I have limited ability to negotiate network participation or reimbursement terms with these entities. However, from a business standpoint, community pharmacies can't just walk away from these contracts. If we did, I would lose a significant amount of the prescription revenue given the large share of these covered lives that these PBMs represent.    Although many independent community pharmacies rely on pharmacy services organizations to contract on their behalf, these PSAOs are no match for the PBMs. In 2013, the GAO conducted a study on the role and the ownership of the PSAOs and stated that over half we spoke with reported having little success in modifying certain contract terms as a result of the negotiations. This may be due to the PBMs use of standard contract terms in the dominant market share of the largest PBMs. Many PBM contracts contain standard terms and conditions that are largely nonnegotiable.    Mr. Chairman, that's the conclusion of my testimony. I welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. The Chair now recognizes the Chairman of the full Judiciary Committee, Mr. Bob Goodlatte of Virginia for his opening statement.</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. In late July, Chairman Marino, Ranking Member Conyers, Ranking Member Johnson, and I announced a series of Committee hearings focused on competition in the health care marketplace. Today's hearing is the third in this series and will examine the competitive dynamics within the pharmacy benefit manager or PBM and pharmacy markets. PBMs oversee the administration and management of prescription drug benefits. In that capacity PBMs interact with nearly every step of the prescription drug supply chain. Consequently, they have the ability to extract lower prices for prescription drugs and have had some success in doing so.    However, notwithstanding pressure from PBMs drug prices continue to rise. A recent Wall Street Journal investigation found that increases in drug prices routinely outpaced inflation and often by a significant amount. These increases were found despite reduced demand drug studied and even in the face of new competing drugs.    If true, this represents a troubling trend as Americans face a progressively aging population and an ever growing amount of taxpayer money used to fund the purchase of prescription drugs. Through today's examination of competition within the PBM and pharmacy markets, we should explore whether the proper economic incentives exist for PBMs and pharmacies to place a genuine check on rising drug prices.    Another challenge facing the country and my constituents is affordable and accessible health care in rural communities. Independent pharmacies play a critical role in the delivery of personal prescription drug care, especially in rural areas.    During my tenure in Congress, I've seen many community pharmacies in my district shudder their doors. While we should allow the free market to operate, we should also ensure that there is a level playing field for both large and small pharmacies. Today's discussion will help shed some light on the nature of the competitive playing field in the pharmacy market.    Since the enactment of the Affordable Care Act, I consistently have expressed concern that the law would compel consolidation across a number of health care industries. My fears appear to be coming true. Both the PBM and the pharmacy markets have experienced consolidation in recent years. Indeed Walgreens and Rite Aid recently announced their intent to merge and CVS's purchase of Target's retail pharmacies is currently under review at the Federal Trade Commission.    This Committee has held hearings on past PBM consolidation, including the merger between Express Scripts and Medco. While this hearing is not intended to review the details of any particular transaction, we should examine how these trends have impacted competition in both the PBM and pharmacy markets. Specifically, it will be helpful to learn what affects these transactions have had on prices paid by Americans for prescription drugs. Most importantly, we should explore whether market courses compel these transactions or the Affordable Care Act and its regulatory progeny are prompting increased consolidation.    We have an excellent panel of witnesses before us today who can provide us with firsthand perspectives on the competitive issues facing the PBMs and pharmacies and I look forward to hearing their testimony.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -214,6 +247,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you Chairman Marino. Of all the issues that we examine here in Congress perhaps none is more personal than that of health care. Americans literally trust our health care professionals with our lives. And pharmacists are an essential part of that health care, particularly in the communities in northern and east Texas that I represent. Because in many of those towns there are big chain drugstores, but most of the towns in the district that I represent depend on local community pharmacies that have been there for decades. And as the health care landscape evolves and becomes frankly increasingly complicated I want to make sure that we protect the pillars of the community in those types of towns in my district.    So Ms. Bricker, let me ask you a question. It is my understanding that your company may not update their reimbursement rate often enough to keep up with fluctuations in the marketplace. That concerns me because if a certain generic drug price drops rapidly and if that drop isn't updated quickly it would seem to me that Medicare could be paying more for a generic drug than it should. Is that a legitimate concern?</t>
   </si>
   <si>
@@ -265,6 +304,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. And thank you to our witnesses. I want to welcome you, and certainly thank you for your testimony and I particularly want to acknowledge the extraordinary corporate citizenship of CVS, a company that I have admired for a long time, particularly when it made its very courageous and impactful decision to forego selling tobacco products at the loss of $2 billion in revenue. But I think you have really set an example for health care companies and I just want to publicly applaud you for that.    I want to go first in response to you, Mr. Balto has said in his testimony, well it was in his written testimony here today that plan sponsors need more transparency in order to make sure they are receiving the full benefits of PBM bargaining power and to make sure that PBMs effectively rein in drug costs. It sounds like a reasonable proposition would you respond to that claim?</t>
   </si>
   <si>
@@ -313,6 +358,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    You know, sometimes I think when I fly in here--I fly--and I've made this statement to my district before that we fly into a wonderland of where reality doesn't matter anymore. Case in point, many of the things that I've heard this afternoon give me cause to believe, yes, we're there again. And this is an issue with community and independent pharmacists that, you know, play a critical role in my district, in rural northeast Georgia.    Mr. Chairman, with the unanimous consent to enter into the record a report from the association representing senior care pharmacies on MAC pricing data, a letter from BlueCross BlueShield on compounding pharmacies, and several statements and examples of PBM interactions from community pharmacies.</t>
   </si>
   <si>
@@ -413,6 +464,12 @@
   </si>
   <si>
     <t>400196</t>
+  </si>
+  <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Okay. Well, I'm going to start off, Mr. Balto, in your statement, it's already been read a couple times, but I'll grab a couple of the key words you used. This is the PBMs are the least regulated sector of healthcare. I guess without the FDA they might be. Essential elements of competition are not there. The following are transparency, choice, and lack of conflict of interest. Right?</t>
@@ -1007,7 +1064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1072,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,4877 +1094,5707 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
       <c r="H66" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G77" t="s">
+        <v>96</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>82</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G82" t="s">
+        <v>96</v>
+      </c>
       <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G86" t="s">
+        <v>114</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G88" t="s">
+        <v>114</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G90" t="s">
+        <v>114</v>
+      </c>
       <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G92" t="s">
+        <v>114</v>
+      </c>
       <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>98</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G94" t="s">
+        <v>114</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>98</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G96" t="s">
+        <v>114</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G98" t="s">
+        <v>114</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>98</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G100" t="s">
+        <v>114</v>
+      </c>
       <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G102" t="s">
+        <v>114</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>98</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s">
+        <v>114</v>
+      </c>
       <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>98</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G106" t="s">
+        <v>114</v>
+      </c>
       <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>98</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G108" t="s">
+        <v>114</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>98</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G110" t="s">
+        <v>114</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>98</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G112" t="s">
+        <v>114</v>
+      </c>
       <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>98</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G114" t="s">
+        <v>114</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>98</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G116" t="s">
+        <v>114</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>98</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G118" t="s">
+        <v>114</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G120" t="s">
+        <v>150</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G124" t="s">
+        <v>150</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G126" t="s">
+        <v>150</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>132</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G128" t="s">
+        <v>150</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>132</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G130" t="s">
+        <v>150</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>132</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G132" t="s">
+        <v>150</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>132</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G134" t="s">
+        <v>150</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>132</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G136" t="s">
+        <v>150</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>132</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G138" t="s">
+        <v>150</v>
+      </c>
       <c r="H138" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>132</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G140" t="s">
+        <v>150</v>
+      </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>132</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G142" t="s">
+        <v>150</v>
+      </c>
       <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>132</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G144" t="s">
+        <v>150</v>
+      </c>
       <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>35</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>132</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G146" t="s">
+        <v>150</v>
+      </c>
       <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>132</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G148" t="s">
+        <v>150</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s">
+        <v>35</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>132</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G150" t="s">
+        <v>150</v>
+      </c>
       <c r="H150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>132</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G152" t="s">
+        <v>150</v>
+      </c>
       <c r="H152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>38</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>132</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G154" t="s">
+        <v>150</v>
+      </c>
       <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>132</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G156" t="s">
+        <v>150</v>
+      </c>
       <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>31</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G172" t="s">
+        <v>35</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G174" t="s">
+        <v>38</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G176" t="s">
+        <v>31</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>35</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s">
+        <v>27</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G188" t="s">
+        <v>27</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
       <c r="H189" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G190" t="s">
+        <v>35</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
       <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G192" t="s">
+        <v>35</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G196" t="s">
+        <v>27</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G198" t="s">
+        <v>35</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>38</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s">
+        <v>17</v>
+      </c>
       <c r="H202" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I202" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>214</v>
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97631.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97631.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
   </si>
   <si>
     <t>412653</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Ratcliffe</t>
@@ -1064,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1084,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,5704 +1109,6128 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G77" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G82" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G84" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G88" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G90" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I90" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G92" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>30</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G96" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>38</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G98" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G100" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>38</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G102" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>38</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G104" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H104" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G106" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G108" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G110" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H110" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G112" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G114" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>30</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G116" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G118" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H118" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>34</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I122" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G124" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>31</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>34</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G126" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>31</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G128" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G130" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>30</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G132" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H132" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I132" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>27</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>30</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G134" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H134" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I134" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>30</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G136" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H136" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I136" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G138" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H138" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I138" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>30</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G140" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H140" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I140" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>30</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G142" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H142" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I142" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s">
-        <v>27</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>30</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G144" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H144" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s">
-        <v>35</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>38</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G146" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H146" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s">
-        <v>35</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>38</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G148" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H148" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I148" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s">
-        <v>35</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>38</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G150" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H150" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I150" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G152" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H152" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I152" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>38</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>41</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G154" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H154" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I154" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>38</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G156" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>31</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>34</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>31</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>34</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>34</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>30</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>35</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>38</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>38</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s">
-        <v>35</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>38</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s">
-        <v>38</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>41</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>31</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>34</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>34</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s">
-        <v>31</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>34</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>34</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>38</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
-      </c>
-      <c r="G186" t="s">
-        <v>27</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>30</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
-      </c>
-      <c r="G188" t="s">
-        <v>27</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>30</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>23</v>
-      </c>
-      <c r="G190" t="s">
-        <v>35</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>38</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>38</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I193" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I195" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
-      </c>
-      <c r="G196" t="s">
-        <v>27</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>30</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
-      </c>
-      <c r="G198" t="s">
-        <v>35</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>38</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s">
-        <v>38</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>41</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G202" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H202" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I202" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J202" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>233</v>
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
